--- a/biology/Biologie cellulaire et moléculaire/Cuve_d'électrophorèse/Cuve_d'électrophorèse.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cuve_d'électrophorèse/Cuve_d'électrophorèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuve_d%27%C3%A9lectrophor%C3%A8se</t>
+          <t>Cuve_d'électrophorèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'électrophorèse sur gel d'agarose se fait dans une cuve horizontale, en condition immergée dans une solution tampon de migration qui est généralement le tampon TAE ou le tampon TBE.
 La cuve d'électrophorèse (faite en matière plastique, transparente ou pas) permet de contenir ce tampon tout en le couplant au système électrique (générateur) par le biais d'électrodes, généralement de platine.
